--- a/Semester 1/Discrete Wiskunde/oefeningen/Velden/14.xlsx
+++ b/Semester 1/Discrete Wiskunde/oefeningen/Velden/14.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18730"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -130,7 +130,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="162">
   <si>
     <t>1. De coördinaten van de punten van de elliptische kromme, en duid hierbij aan welke punten inversen zijn van elkaar.</t>
   </si>
@@ -588,21 +588,6 @@
     <t>= (4) + (1)</t>
   </si>
   <si>
-    <r>
-      <t>(∞</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Lucida Sans Typewriter"/>
-        <family val="3"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
     <t>= (6) + (3)</t>
   </si>
   <si>
@@ -801,10 +786,28 @@
     <t>y/x</t>
   </si>
   <si>
-    <t>z - x''</t>
-  </si>
-  <si>
-    <t>1 / x^2 + 1</t>
+    <t>inf</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>(x) / (y)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(x - y) % 7 =&gt; (z) </t>
+  </si>
+  <si>
+    <t>(2) / (6) = (2 - 6) % 7 = (3)</t>
+  </si>
+  <si>
+    <t>z * x''</t>
+  </si>
+  <si>
+    <t>DE GROEPSTABEL</t>
+  </si>
+  <si>
+    <t>O</t>
   </si>
 </sst>
 </file>
@@ -1113,7 +1116,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1121,9 +1124,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1145,9 +1145,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1155,10 +1152,8 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1173,9 +1168,6 @@
     <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1195,9 +1187,25 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -1222,15 +1230,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>674594</xdr:colOff>
+          <xdr:colOff>676275</xdr:colOff>
           <xdr:row>25</xdr:row>
-          <xdr:rowOff>150719</xdr:rowOff>
+          <xdr:rowOff>152400</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>3310534</xdr:colOff>
+          <xdr:colOff>3314700</xdr:colOff>
           <xdr:row>36</xdr:row>
-          <xdr:rowOff>5360</xdr:rowOff>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1326,8 +1334,8 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>282005</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>173744</xdr:rowOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>562</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1365,25 +1373,25 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>752475</xdr:colOff>
-          <xdr:row>81</xdr:row>
-          <xdr:rowOff>85725</xdr:rowOff>
+          <xdr:colOff>247650</xdr:colOff>
+          <xdr:row>62</xdr:row>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>3390900</xdr:colOff>
-          <xdr:row>91</xdr:row>
-          <xdr:rowOff>171450</xdr:rowOff>
+          <xdr:colOff>2886075</xdr:colOff>
+          <xdr:row>72</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1030" name="Object 6" hidden="1">
+            <xdr:cNvPr id="1031" name="Object 7" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1030"/>
+                  <a14:compatExt spid="_x0000_s1031"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3AD0553-64F0-4487-8162-3FDBE5EB49EF}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1415,6 +1423,50 @@
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>201705</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>56029</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>3126837</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>67532</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Afbeelding 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4437529" y="16170088"/>
+          <a:ext cx="4572396" cy="3429297"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1681,10 +1733,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="I1:U98"/>
+  <dimension ref="I1:U113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I65" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M84" sqref="M84"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1692,21 +1744,21 @@
     <col min="1" max="8" width="9.140625" style="1"/>
     <col min="9" max="9" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="54.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="32.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="26.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="19" width="28.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="9:16" ht="123" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
+      <c r="M1" s="60"/>
+      <c r="N1" s="60"/>
+      <c r="O1" s="60"/>
+      <c r="P1" s="60"/>
     </row>
     <row r="2" spans="9:16" x14ac:dyDescent="0.2">
       <c r="J2" s="2"/>
@@ -1760,486 +1812,495 @@
         <v>11</v>
       </c>
       <c r="M18" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="N18" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="N18" s="1" t="s">
-        <v>136</v>
-      </c>
       <c r="O18" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="19" spans="10:19" x14ac:dyDescent="0.2">
-      <c r="K19" s="23" t="s">
+      <c r="K19" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="L19" s="23"/>
+      <c r="L19" s="61"/>
       <c r="M19" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="20" spans="10:19" x14ac:dyDescent="0.2">
+      <c r="K20" s="54"/>
+      <c r="L20" s="54"/>
+      <c r="M20" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="21" spans="10:19" x14ac:dyDescent="0.2">
+      <c r="J21" s="57" t="s">
+        <v>138</v>
+      </c>
+      <c r="K21" s="54"/>
+      <c r="L21" s="54"/>
+      <c r="M21" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="N19" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="O19" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="20" spans="10:19" x14ac:dyDescent="0.2">
-      <c r="K20" s="49"/>
-      <c r="L20" s="49"/>
-    </row>
-    <row r="21" spans="10:19" x14ac:dyDescent="0.2">
-      <c r="J21" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="K21" s="49"/>
-      <c r="L21" s="49"/>
-      <c r="M21" s="1" t="s">
+      <c r="N21" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="N21" s="1" t="s">
+      <c r="O21" s="1" t="s">
         <v>130</v>
-      </c>
-      <c r="O21" s="1" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="22" spans="10:19" x14ac:dyDescent="0.2">
       <c r="J22" s="3"/>
     </row>
     <row r="24" spans="10:19" ht="15" x14ac:dyDescent="0.25">
-      <c r="K24" s="43" t="s">
+      <c r="K24" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="L24" s="44" t="s">
+      <c r="L24" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="M24" s="44" t="s">
+      <c r="M24" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="N24" s="44" t="s">
+      <c r="N24" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="O24" s="44" t="s">
+      <c r="O24" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="P24" s="44" t="s">
+      <c r="P24" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="Q24" s="44" t="s">
+      <c r="Q24" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="R24" s="44" t="s">
+      <c r="R24" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="S24" s="45" t="s">
+      <c r="S24" s="41" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="25" spans="10:19" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="K25" s="24" t="s">
+      <c r="K25" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="L25" s="25" t="s">
+      <c r="L25" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="M25" s="25" t="s">
+      <c r="M25" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="N25" s="25" t="s">
+      <c r="N25" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="O25" s="25" t="s">
+      <c r="O25" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="P25" s="25" t="s">
+      <c r="P25" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="Q25" s="25" t="s">
+      <c r="Q25" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="R25" s="25" t="s">
+      <c r="R25" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="S25" s="25" t="s">
+      <c r="S25" s="23" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="26" spans="10:19" x14ac:dyDescent="0.2">
-      <c r="K26" s="24"/>
-      <c r="L26" s="25" t="s">
+      <c r="K26" s="22"/>
+      <c r="L26" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="M26" s="25" t="s">
+      <c r="M26" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="N26" s="25" t="s">
+      <c r="N26" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="O26" s="25" t="s">
+      <c r="O26" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="P26" s="25" t="s">
+      <c r="P26" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="Q26" s="25" t="s">
+      <c r="Q26" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="R26" s="25" t="s">
+      <c r="R26" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="S26" s="25" t="s">
+      <c r="S26" s="23" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="27" spans="10:19" ht="15" x14ac:dyDescent="0.25">
-      <c r="K27" s="26"/>
-      <c r="L27" s="29" t="s">
+      <c r="K27" s="24"/>
+      <c r="L27" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="M27" s="30" t="s">
+      <c r="M27" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="N27" s="30" t="s">
+      <c r="N27" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="O27" s="30" t="s">
+      <c r="O27" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="P27" s="30" t="s">
+      <c r="P27" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="Q27" s="30" t="s">
+      <c r="Q27" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="R27" s="30" t="s">
+      <c r="R27" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="S27" s="31" t="s">
+      <c r="S27" s="58" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="28" spans="10:19" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="K28" s="10" t="s">
+      <c r="K28" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="L28" s="11" t="s">
+      <c r="L28" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="M28" s="11" t="s">
+      <c r="M28" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="N28" s="11" t="s">
+      <c r="N28" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="O28" s="11" t="s">
+      <c r="O28" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="P28" s="11" t="s">
+      <c r="P28" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="Q28" s="11" t="s">
+      <c r="Q28" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="R28" s="11" t="s">
+      <c r="R28" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="S28" s="11" t="s">
+      <c r="S28" s="10" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="29" spans="10:19" x14ac:dyDescent="0.2">
-      <c r="K29" s="10"/>
-      <c r="L29" s="12" t="s">
+      <c r="K29" s="9"/>
+      <c r="L29" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="M29" s="12" t="s">
+      <c r="M29" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="N29" s="12" t="s">
+      <c r="N29" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="O29" s="12" t="s">
+      <c r="O29" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="P29" s="12" t="s">
+      <c r="P29" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="Q29" s="12" t="s">
+      <c r="Q29" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="R29" s="12" t="s">
+      <c r="R29" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="S29" s="12" t="s">
+      <c r="S29" s="11" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="30" spans="10:19" ht="15" x14ac:dyDescent="0.25">
-      <c r="K30" s="14"/>
-      <c r="L30" s="32" t="s">
+      <c r="K30" s="13"/>
+      <c r="L30" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="M30" s="33" t="s">
+      <c r="M30" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="N30" s="33" t="s">
+      <c r="N30" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="O30" s="33" t="s">
+      <c r="O30" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="P30" s="33" t="s">
+      <c r="P30" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="Q30" s="33" t="s">
+      <c r="Q30" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="R30" s="33" t="s">
+      <c r="R30" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="S30" s="34" t="s">
+      <c r="S30" s="59" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="31" spans="10:19" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="K31" s="17" t="s">
+      <c r="K31" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="L31" s="18" t="s">
+      <c r="L31" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="M31" s="18" t="s">
+      <c r="M31" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="N31" s="18" t="s">
+      <c r="N31" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="O31" s="18" t="s">
+      <c r="O31" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="P31" s="18" t="s">
+      <c r="P31" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="Q31" s="18" t="s">
+      <c r="Q31" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="R31" s="18" t="s">
+      <c r="R31" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="S31" s="18" t="s">
+      <c r="S31" s="17" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="32" spans="10:19" x14ac:dyDescent="0.2">
-      <c r="K32" s="19"/>
-      <c r="L32" s="20" t="s">
+      <c r="K32" s="18"/>
+      <c r="L32" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="M32" s="20" t="s">
+      <c r="M32" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="N32" s="20" t="s">
+      <c r="N32" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="O32" s="20" t="s">
+      <c r="O32" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="P32" s="20" t="s">
+      <c r="P32" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="Q32" s="20" t="s">
+      <c r="Q32" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="R32" s="20" t="s">
+      <c r="R32" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="S32" s="20" t="s">
+      <c r="S32" s="19" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="33" spans="11:19" x14ac:dyDescent="0.2">
-      <c r="K33" s="21"/>
-      <c r="L33" s="35" t="s">
+      <c r="K33" s="20"/>
+      <c r="L33" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="M33" s="36" t="s">
+      <c r="M33" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="N33" s="36" t="s">
+      <c r="N33" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="O33" s="36" t="s">
+      <c r="O33" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="P33" s="36" t="s">
+      <c r="P33" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="Q33" s="36" t="s">
+      <c r="Q33" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="R33" s="36" t="s">
+      <c r="R33" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="S33" s="37" t="s">
+      <c r="S33" s="33" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="34" spans="11:19" x14ac:dyDescent="0.2">
-      <c r="K34" s="27" t="s">
+      <c r="K34" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="L34" s="28" t="s">
+      <c r="L34" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="M34" s="28" t="s">
+      <c r="M34" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="N34" s="28" t="s">
+      <c r="N34" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="O34" s="28" t="s">
+      <c r="O34" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="P34" s="28" t="s">
+      <c r="P34" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="Q34" s="28" t="s">
+      <c r="Q34" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="R34" s="28" t="s">
+      <c r="R34" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="S34" s="28" t="s">
+      <c r="S34" s="26" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="35" spans="11:19" x14ac:dyDescent="0.2">
-      <c r="K35" s="27"/>
-      <c r="L35" s="28" t="s">
+      <c r="K35" s="25"/>
+      <c r="L35" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="M35" s="28" t="s">
+      <c r="M35" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="N35" s="28" t="s">
+      <c r="N35" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="O35" s="28" t="s">
+      <c r="O35" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="P35" s="28" t="s">
+      <c r="P35" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="Q35" s="28" t="s">
+      <c r="Q35" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="R35" s="28" t="s">
+      <c r="R35" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="S35" s="28" t="s">
+      <c r="S35" s="26" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="36" spans="11:19" x14ac:dyDescent="0.2">
-      <c r="K36" s="38"/>
-      <c r="L36" s="39" t="s">
+      <c r="K36" s="34"/>
+      <c r="L36" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="M36" s="40" t="s">
+      <c r="M36" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="N36" s="40" t="s">
+      <c r="N36" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="O36" s="40" t="s">
+      <c r="O36" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="P36" s="41" t="s">
+      <c r="P36" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="Q36" s="40" t="s">
+      <c r="Q36" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="R36" s="40" t="s">
+      <c r="R36" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="S36" s="42" t="s">
+      <c r="S36" s="38" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="37" spans="11:19" x14ac:dyDescent="0.2">
-      <c r="K37" s="15"/>
-      <c r="L37" s="15"/>
+      <c r="K37" s="14"/>
+      <c r="L37" s="14"/>
     </row>
     <row r="38" spans="11:19" x14ac:dyDescent="0.2">
-      <c r="K38" s="15"/>
-      <c r="L38" s="15"/>
+      <c r="K38" s="14"/>
+      <c r="L38" s="14"/>
     </row>
     <row r="39" spans="11:19" x14ac:dyDescent="0.2">
-      <c r="K39" s="15" t="s">
+      <c r="K39" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="L39" s="15"/>
+      <c r="L39" s="14"/>
     </row>
     <row r="40" spans="11:19" x14ac:dyDescent="0.2">
-      <c r="L40" s="15"/>
+      <c r="L40" s="14"/>
     </row>
     <row r="41" spans="11:19" ht="15" x14ac:dyDescent="0.25">
-      <c r="K41" s="43" t="s">
+      <c r="K41" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="L41" s="44" t="s">
+      <c r="L41" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="M41" s="44" t="s">
+      <c r="M41" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="N41" s="44" t="s">
+      <c r="N41" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="O41" s="44" t="s">
+      <c r="O41" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="P41" s="44" t="s">
+      <c r="P41" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="Q41" s="44" t="s">
+      <c r="Q41" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="R41" s="44" t="s">
+      <c r="R41" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="S41" s="46" t="s">
+      <c r="S41" s="42" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="42" spans="11:19" x14ac:dyDescent="0.2">
-      <c r="K42" s="16" t="s">
+      <c r="K42" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="L42" s="39" t="s">
+      <c r="L42" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="M42" s="40" t="s">
+      <c r="M42" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="N42" s="40" t="s">
+      <c r="N42" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="O42" s="40" t="s">
+      <c r="O42" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="P42" s="41" t="s">
+      <c r="P42" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="Q42" s="40" t="s">
+      <c r="Q42" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="R42" s="40" t="s">
+      <c r="R42" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="S42" s="42" t="s">
+      <c r="S42" s="38" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2281,58 +2342,58 @@
       </c>
     </row>
     <row r="44" spans="11:19" x14ac:dyDescent="0.2">
-      <c r="K44" s="47" t="s">
+      <c r="K44" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="L44" s="5" t="s">
+      <c r="L44" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="M44" s="5" t="s">
+      <c r="M44" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="N44" s="5" t="s">
+      <c r="N44" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="O44" s="5" t="s">
+      <c r="O44" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="P44" s="5" t="s">
+      <c r="P44" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="Q44" s="5" t="s">
+      <c r="Q44" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="R44" s="5" t="s">
+      <c r="R44" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="S44" s="5" t="s">
+      <c r="S44" s="4" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="45" spans="11:19" x14ac:dyDescent="0.2">
-      <c r="K45" s="8"/>
-      <c r="L45" s="48" t="s">
+      <c r="K45" s="7"/>
+      <c r="L45" s="44" t="s">
         <v>68</v>
       </c>
-      <c r="M45" s="48" t="s">
+      <c r="M45" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="N45" s="48" t="s">
+      <c r="N45" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="O45" s="48" t="s">
+      <c r="O45" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="P45" s="48" t="s">
+      <c r="P45" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="Q45" s="48" t="s">
+      <c r="Q45" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="R45" s="13" t="s">
+      <c r="R45" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="S45" s="48" t="s">
+      <c r="S45" s="44" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2374,62 +2435,65 @@
       </c>
     </row>
     <row r="47" spans="11:19" x14ac:dyDescent="0.2">
-      <c r="K47" s="47" t="s">
+      <c r="K47" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="L47" s="5" t="s">
+      <c r="L47" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="M47" s="5" t="s">
+      <c r="M47" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="N47" s="5" t="s">
+      <c r="N47" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="O47" s="5" t="s">
+      <c r="O47" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="P47" s="5" t="s">
+      <c r="P47" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="Q47" s="5" t="s">
+      <c r="Q47" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="R47" s="5" t="s">
+      <c r="R47" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="S47" s="5" t="s">
+      <c r="S47" s="4" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="48" spans="11:19" x14ac:dyDescent="0.2">
-      <c r="K48" s="8"/>
-      <c r="L48" s="9" t="s">
+      <c r="K48" s="7"/>
+      <c r="L48" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="M48" s="9" t="s">
+      <c r="M48" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="N48" s="9" t="s">
+      <c r="N48" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="O48" s="9" t="s">
+      <c r="O48" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="P48" s="9" t="s">
+      <c r="P48" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="Q48" s="9" t="s">
+      <c r="Q48" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="R48" s="9" t="s">
+      <c r="R48" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="S48" s="9" t="s">
+      <c r="S48" s="8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="49" spans="11:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="10:19" x14ac:dyDescent="0.2">
+      <c r="J49" s="1" t="s">
+        <v>155</v>
+      </c>
       <c r="K49" s="1" t="s">
         <v>60</v>
       </c>
@@ -2466,63 +2530,63 @@
         <v>(2) * (2) + (∞) * (2)</v>
       </c>
     </row>
-    <row r="50" spans="11:19" x14ac:dyDescent="0.2">
-      <c r="K50" s="47" t="s">
+    <row r="50" spans="10:19" x14ac:dyDescent="0.2">
+      <c r="K50" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="L50" s="5" t="s">
+      <c r="L50" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="M50" s="5" t="s">
+      <c r="M50" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="N50" s="5" t="s">
+      <c r="N50" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="O50" s="5" t="s">
+      <c r="O50" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="P50" s="5" t="s">
+      <c r="P50" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="Q50" s="5" t="s">
+      <c r="Q50" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="R50" s="5" t="s">
+      <c r="R50" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="S50" s="5" t="s">
+      <c r="S50" s="4" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="51" spans="11:19" x14ac:dyDescent="0.2">
-      <c r="K51" s="8"/>
-      <c r="L51" s="9" t="s">
+    <row r="51" spans="10:19" x14ac:dyDescent="0.2">
+      <c r="K51" s="7"/>
+      <c r="L51" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="M51" s="9" t="s">
+      <c r="M51" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="N51" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="O51" s="9" t="s">
+      <c r="N51" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="O51" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="P51" s="9" t="s">
+      <c r="P51" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="Q51" s="9" t="s">
+      <c r="Q51" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="R51" s="13" t="s">
+      <c r="R51" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="S51" s="9" t="s">
+      <c r="S51" s="8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="52" spans="11:19" x14ac:dyDescent="0.2">
+    <row r="52" spans="10:19" x14ac:dyDescent="0.2">
       <c r="K52" s="1" t="s">
         <v>61</v>
       </c>
@@ -2559,63 +2623,63 @@
         <v>(3) * (3) + (∞) * (3)</v>
       </c>
     </row>
-    <row r="53" spans="11:19" x14ac:dyDescent="0.2">
-      <c r="K53" s="47" t="s">
+    <row r="53" spans="10:19" x14ac:dyDescent="0.2">
+      <c r="K53" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="L53" s="5" t="s">
+      <c r="L53" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="M53" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="M53" s="5" t="s">
+      <c r="N53" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="N53" s="5" t="s">
+      <c r="O53" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="O53" s="5" t="s">
+      <c r="P53" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="P53" s="5" t="s">
+      <c r="Q53" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="Q53" s="5" t="s">
+      <c r="R53" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="R53" s="5" t="s">
+      <c r="S53" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="S53" s="5" t="s">
+    </row>
+    <row r="54" spans="10:19" x14ac:dyDescent="0.2">
+      <c r="K54" s="7"/>
+      <c r="L54" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="M54" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="N54" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="O54" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="P54" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q54" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="R54" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="S54" s="12" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="54" spans="11:19" x14ac:dyDescent="0.2">
-      <c r="K54" s="8"/>
-      <c r="L54" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="M54" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="N54" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="O54" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="P54" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q54" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="R54" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="S54" s="13" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="55" spans="11:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="10:19" x14ac:dyDescent="0.2">
       <c r="K55" s="1" t="s">
         <v>62</v>
       </c>
@@ -2652,63 +2716,63 @@
         <v>(4) * (4) + (∞) * (4)</v>
       </c>
     </row>
-    <row r="56" spans="11:19" x14ac:dyDescent="0.2">
-      <c r="K56" s="47" t="s">
+    <row r="56" spans="10:19" x14ac:dyDescent="0.2">
+      <c r="K56" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="L56" s="5" t="s">
+      <c r="L56" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="M56" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="M56" s="5" t="s">
+      <c r="N56" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="N56" s="5" t="s">
+      <c r="O56" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="O56" s="5" t="s">
+      <c r="P56" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="P56" s="5" t="s">
+      <c r="Q56" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="Q56" s="5" t="s">
+      <c r="R56" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="R56" s="5" t="s">
+      <c r="S56" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="S56" s="5" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="57" spans="11:19" x14ac:dyDescent="0.2">
-      <c r="K57" s="8"/>
-      <c r="L57" s="9" t="s">
+    </row>
+    <row r="57" spans="10:19" x14ac:dyDescent="0.2">
+      <c r="K57" s="7"/>
+      <c r="L57" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="M57" s="9" t="s">
+      <c r="M57" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="N57" s="9" t="s">
+      <c r="N57" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="O57" s="9" t="s">
+      <c r="O57" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="P57" s="13" t="s">
+      <c r="P57" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="Q57" s="9" t="s">
+      <c r="Q57" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="R57" s="9" t="s">
+      <c r="R57" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="S57" s="9" t="s">
+      <c r="S57" s="8" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="58" spans="11:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="10:19" x14ac:dyDescent="0.2">
       <c r="K58" s="1" t="s">
         <v>63</v>
       </c>
@@ -2745,63 +2809,63 @@
         <v>(5) * (5) + (∞) * (5)</v>
       </c>
     </row>
-    <row r="59" spans="11:19" x14ac:dyDescent="0.2">
-      <c r="K59" s="47" t="s">
+    <row r="59" spans="10:19" x14ac:dyDescent="0.2">
+      <c r="K59" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="L59" s="5" t="s">
+      <c r="L59" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="M59" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="N59" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="O59" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="P59" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q59" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="R59" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="S59" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="M59" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="N59" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="O59" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="P59" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q59" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="R59" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="S59" s="5" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="60" spans="11:19" x14ac:dyDescent="0.2">
-      <c r="K60" s="8"/>
-      <c r="L60" s="9" t="s">
+    </row>
+    <row r="60" spans="10:19" x14ac:dyDescent="0.2">
+      <c r="K60" s="7"/>
+      <c r="L60" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="M60" s="9" t="s">
+      <c r="M60" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="N60" s="9" t="s">
+      <c r="N60" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="O60" s="9" t="s">
+      <c r="O60" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="P60" s="9" t="s">
+      <c r="P60" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="Q60" s="9" t="s">
+      <c r="Q60" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="R60" s="9" t="s">
+      <c r="R60" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="S60" s="9" t="s">
+      <c r="S60" s="8" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="61" spans="11:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="10:19" x14ac:dyDescent="0.2">
       <c r="K61" s="1" t="s">
         <v>64</v>
       </c>
@@ -2838,63 +2902,63 @@
         <v>(6) * (6) + (∞) * (6)</v>
       </c>
     </row>
-    <row r="62" spans="11:19" x14ac:dyDescent="0.2">
-      <c r="K62" s="47" t="s">
+    <row r="62" spans="10:19" x14ac:dyDescent="0.2">
+      <c r="K62" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="L62" s="5" t="s">
+      <c r="L62" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="M62" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="N62" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="O62" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="P62" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q62" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="R62" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="S62" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="M62" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="N62" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="O62" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="P62" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q62" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="R62" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="S62" s="5" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="63" spans="11:19" x14ac:dyDescent="0.2">
-      <c r="K63" s="8"/>
-      <c r="L63" s="9" t="s">
+    </row>
+    <row r="63" spans="10:19" x14ac:dyDescent="0.2">
+      <c r="K63" s="7"/>
+      <c r="L63" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="M63" s="9" t="s">
+      <c r="M63" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="N63" s="9" t="s">
+      <c r="N63" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="O63" s="9" t="s">
+      <c r="O63" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="P63" s="9" t="s">
+      <c r="P63" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="Q63" s="9" t="s">
+      <c r="Q63" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="R63" s="9" t="s">
+      <c r="R63" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="S63" s="8" t="s">
+      <c r="S63" s="7" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="64" spans="11:19" x14ac:dyDescent="0.2">
+    <row r="64" spans="10:19" x14ac:dyDescent="0.2">
       <c r="K64" s="1" t="s">
         <v>65</v>
       </c>
@@ -2932,266 +2996,391 @@
       </c>
     </row>
     <row r="65" spans="10:19" x14ac:dyDescent="0.2">
-      <c r="K65" s="47" t="s">
+      <c r="K65" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="L65" s="5" t="s">
+      <c r="L65" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="M65" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="N65" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="O65" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="P65" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q65" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="R65" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="S65" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="66" spans="10:19" x14ac:dyDescent="0.2">
+      <c r="K66" s="7"/>
+      <c r="L66" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="M66" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="N66" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="O66" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="P66" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q66" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="R66" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="S66" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="67" spans="10:19" x14ac:dyDescent="0.2">
+      <c r="K67" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="M65" s="5" t="s">
+      <c r="L67" s="5"/>
+      <c r="M67" s="5"/>
+      <c r="N67" s="5"/>
+      <c r="O67" s="5"/>
+      <c r="P67" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q67" s="5"/>
+      <c r="R67" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="S67" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="68" spans="10:19" x14ac:dyDescent="0.2">
+      <c r="K68" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="L68" s="5"/>
+      <c r="M68" s="5"/>
+      <c r="N68" s="5"/>
+      <c r="O68" s="5"/>
+      <c r="P68" s="45" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q68" s="5"/>
+      <c r="R68" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="S68" s="5"/>
+    </row>
+    <row r="69" spans="10:19" x14ac:dyDescent="0.2">
+      <c r="L69" s="14"/>
+    </row>
+    <row r="72" spans="10:19" x14ac:dyDescent="0.2">
+      <c r="L72" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="M72" s="10" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="73" spans="10:19" x14ac:dyDescent="0.2">
+      <c r="L73" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="M73" s="10" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="74" spans="10:19" x14ac:dyDescent="0.2">
+      <c r="L74" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="M74" s="10"/>
+    </row>
+    <row r="79" spans="10:19" x14ac:dyDescent="0.2">
+      <c r="J79" s="57" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="81" spans="11:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K81" s="49" t="s">
+        <v>139</v>
+      </c>
+      <c r="L81" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="M81" s="50" t="s">
         <v>125</v>
       </c>
-      <c r="N65" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="O65" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="P65" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q65" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="R65" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="S65" s="5" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="66" spans="10:19" x14ac:dyDescent="0.2">
-      <c r="K66" s="8"/>
-      <c r="L66" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="M66" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="N66" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="O66" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="P66" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q66" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="R66" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="S66" s="9" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="67" spans="10:19" x14ac:dyDescent="0.2">
-      <c r="K67" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="L67" s="6"/>
-      <c r="M67" s="6"/>
-      <c r="N67" s="6"/>
-      <c r="O67" s="6"/>
-      <c r="P67" s="7" t="s">
+      <c r="N81" s="50" t="s">
+        <v>153</v>
+      </c>
+      <c r="O81" s="50" t="s">
+        <v>140</v>
+      </c>
+      <c r="P81" s="50" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q81" s="50" t="s">
+        <v>141</v>
+      </c>
+      <c r="R81" s="50" t="s">
+        <v>159</v>
+      </c>
+      <c r="S81" s="50" t="s">
+        <v>21</v>
+      </c>
+      <c r="T81" s="46" t="s">
+        <v>142</v>
+      </c>
+      <c r="U81" s="48" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="82" spans="11:21" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="K82" s="51" t="s">
+        <v>136</v>
+      </c>
+      <c r="L82" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="Q67" s="6"/>
-      <c r="R67" s="7" t="s">
+      <c r="M82" s="53" t="s">
+        <v>17</v>
+      </c>
+      <c r="N82" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="S67" s="7" t="s">
+      <c r="O82" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="P82" s="53" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="68" spans="10:19" x14ac:dyDescent="0.2">
-      <c r="K68" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="L68" s="6"/>
-      <c r="M68" s="6"/>
-      <c r="N68" s="6"/>
-      <c r="O68" s="6"/>
-      <c r="P68" s="50" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q68" s="6"/>
-      <c r="R68" s="7" t="s">
+      <c r="Q82" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="R82" s="53" t="s">
+        <v>17</v>
+      </c>
+      <c r="S82" s="56" t="s">
+        <v>14</v>
+      </c>
+      <c r="T82" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="U82" s="47" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="83" spans="11:21" x14ac:dyDescent="0.2">
+      <c r="K83" s="51" t="s">
+        <v>144</v>
+      </c>
+      <c r="L83" s="53" t="s">
+        <v>17</v>
+      </c>
+      <c r="M83" s="53" t="s">
+        <v>154</v>
+      </c>
+      <c r="N83" s="53" t="s">
+        <v>154</v>
+      </c>
+      <c r="O83" s="53" t="s">
+        <v>17</v>
+      </c>
+      <c r="P83" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q83" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="R83" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="S83" s="56" t="s">
+        <v>14</v>
+      </c>
+      <c r="T83" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="S68" s="6"/>
-    </row>
-    <row r="69" spans="10:19" x14ac:dyDescent="0.2">
-      <c r="L69" s="15"/>
-    </row>
-    <row r="72" spans="10:19" x14ac:dyDescent="0.2">
-      <c r="L72" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="M72" s="11" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="73" spans="10:19" x14ac:dyDescent="0.2">
-      <c r="L73" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="M73" s="11" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="74" spans="10:19" x14ac:dyDescent="0.2">
-      <c r="L74" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="M74" s="11"/>
-    </row>
-    <row r="79" spans="10:19" x14ac:dyDescent="0.2">
-      <c r="J79" s="6" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="81" spans="11:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="K81" s="54" t="s">
-        <v>140</v>
-      </c>
-      <c r="L81" s="55" t="s">
-        <v>12</v>
-      </c>
-      <c r="M81" s="55" t="s">
-        <v>126</v>
-      </c>
-      <c r="N81" s="55" t="s">
+      <c r="U83" s="47" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="84" spans="11:21" x14ac:dyDescent="0.2">
+      <c r="K84" s="51" t="s">
+        <v>145</v>
+      </c>
+      <c r="L84" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="M84" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="N84" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="O84" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="P84" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q84" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="R84" s="53" t="s">
+        <v>17</v>
+      </c>
+      <c r="S84" s="56" t="s">
+        <v>18</v>
+      </c>
+      <c r="T84" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="U84" s="47" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="85" spans="11:21" x14ac:dyDescent="0.2">
+      <c r="K85" s="51" t="s">
+        <v>146</v>
+      </c>
+      <c r="L85" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="M85" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="N85" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="O85" s="53" t="s">
+        <v>17</v>
+      </c>
+      <c r="P85" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q85" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="R85" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="S85" s="56" t="s">
+        <v>18</v>
+      </c>
+      <c r="T85" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="U85" s="47" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="86" spans="11:21" x14ac:dyDescent="0.2">
+      <c r="K86" s="52"/>
+      <c r="L86" s="52"/>
+      <c r="M86" s="52"/>
+      <c r="N86" s="52"/>
+      <c r="O86" s="52"/>
+      <c r="P86" s="52"/>
+      <c r="Q86" s="52"/>
+      <c r="R86" s="52"/>
+      <c r="S86" s="52"/>
+    </row>
+    <row r="87" spans="11:21" x14ac:dyDescent="0.2">
+      <c r="L87" s="21"/>
+      <c r="M87" s="21"/>
+      <c r="N87" s="21"/>
+      <c r="O87" s="21"/>
+      <c r="P87" s="21"/>
+      <c r="Q87" s="21"/>
+      <c r="R87" s="21"/>
+      <c r="S87" s="21"/>
+    </row>
+    <row r="105" spans="10:17" x14ac:dyDescent="0.2">
+      <c r="J105" s="57" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="107" spans="10:17" x14ac:dyDescent="0.2">
+      <c r="L107" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="O81" s="55" t="s">
-        <v>141</v>
-      </c>
-      <c r="P81" s="55" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q81" s="55" t="s">
-        <v>142</v>
-      </c>
-      <c r="R81" s="55" t="s">
-        <v>155</v>
-      </c>
-      <c r="S81" s="55" t="s">
-        <v>21</v>
-      </c>
-      <c r="T81" s="51" t="s">
-        <v>143</v>
-      </c>
-      <c r="U81" s="53" t="s">
+      <c r="M107" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="N107" s="7" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="82" spans="11:21" ht="15" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="K82" s="56" t="s">
-        <v>137</v>
-      </c>
-      <c r="L82" s="58" t="s">
-        <v>17</v>
-      </c>
-      <c r="M82" s="58" t="s">
-        <v>17</v>
-      </c>
-      <c r="N82" s="58" t="s">
-        <v>13</v>
-      </c>
-      <c r="O82" s="22"/>
-      <c r="P82" s="22"/>
-      <c r="Q82" s="22"/>
-      <c r="R82" s="22"/>
-      <c r="S82" s="57"/>
-      <c r="U82" s="52"/>
-    </row>
-    <row r="83" spans="11:21" x14ac:dyDescent="0.2">
-      <c r="K83" s="56" t="s">
+      <c r="O107" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="P107" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="L83" s="58" t="s">
-        <v>17</v>
-      </c>
-      <c r="M83" s="59" t="s">
-        <v>68</v>
-      </c>
-      <c r="N83" s="58" t="s">
-        <v>68</v>
-      </c>
-      <c r="O83" s="22"/>
-      <c r="P83" s="22"/>
-      <c r="Q83" s="22"/>
-      <c r="R83" s="22"/>
-      <c r="S83" s="57"/>
-      <c r="U83" s="52"/>
-    </row>
-    <row r="84" spans="11:21" x14ac:dyDescent="0.2">
-      <c r="K84" s="56" t="s">
+      <c r="Q107" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="L84" s="58" t="s">
-        <v>19</v>
-      </c>
-      <c r="M84" s="58" t="s">
-        <v>13</v>
-      </c>
-      <c r="N84" s="58" t="s">
-        <v>14</v>
-      </c>
-      <c r="O84" s="22"/>
-      <c r="P84" s="22"/>
-      <c r="Q84" s="22"/>
-      <c r="R84" s="22"/>
-      <c r="S84" s="57"/>
-      <c r="U84" s="52"/>
-    </row>
-    <row r="85" spans="11:21" x14ac:dyDescent="0.2">
-      <c r="K85" s="56" t="s">
-        <v>147</v>
-      </c>
-      <c r="L85" s="58" t="s">
-        <v>19</v>
-      </c>
-      <c r="M85" s="58" t="s">
-        <v>15</v>
-      </c>
-      <c r="N85" s="58" t="s">
-        <v>16</v>
-      </c>
-      <c r="O85" s="22"/>
-      <c r="P85" s="22"/>
-      <c r="Q85" s="22"/>
-      <c r="R85" s="22"/>
-      <c r="S85" s="57"/>
-      <c r="U85" s="52"/>
-    </row>
-    <row r="86" spans="11:21" x14ac:dyDescent="0.2">
-      <c r="K86" s="57"/>
-      <c r="L86" s="57"/>
-      <c r="M86" s="57"/>
-      <c r="N86" s="57"/>
-      <c r="O86" s="57"/>
-      <c r="P86" s="57"/>
-      <c r="Q86" s="57"/>
-      <c r="R86" s="57"/>
-      <c r="S86" s="57"/>
-    </row>
-    <row r="87" spans="11:21" x14ac:dyDescent="0.2">
-      <c r="L87" s="22"/>
-      <c r="M87" s="22"/>
-      <c r="N87" s="22"/>
-      <c r="O87" s="22"/>
-      <c r="P87" s="22"/>
-      <c r="Q87" s="22"/>
-      <c r="R87" s="22"/>
-      <c r="S87" s="22"/>
-    </row>
-    <row r="98" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K98" s="1" t="s">
-        <v>156</v>
+    </row>
+    <row r="108" spans="10:17" x14ac:dyDescent="0.2">
+      <c r="K108" s="62" t="s">
+        <v>154</v>
+      </c>
+      <c r="L108" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="109" spans="10:17" x14ac:dyDescent="0.2">
+      <c r="K109" s="62" t="s">
+        <v>136</v>
+      </c>
+      <c r="M109" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="110" spans="10:17" x14ac:dyDescent="0.2">
+      <c r="K110" s="62" t="s">
+        <v>144</v>
+      </c>
+      <c r="N110" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="111" spans="10:17" x14ac:dyDescent="0.2">
+      <c r="K111" s="62" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="112" spans="10:17" x14ac:dyDescent="0.2">
+      <c r="K112" s="62" t="s">
+        <v>145</v>
+      </c>
+      <c r="P112" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="113" spans="11:17" x14ac:dyDescent="0.2">
+      <c r="K113" s="62" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q113" s="1" t="s">
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -3231,27 +3420,27 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Excel.Sheet.8" shapeId="1030" r:id="rId6">
+        <oleObject progId="Excel.Sheet.8" shapeId="1031" r:id="rId6">
           <objectPr defaultSize="0" autoPict="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>8</xdr:col>
-                <xdr:colOff>752475</xdr:colOff>
-                <xdr:row>81</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
+                <xdr:colOff>247650</xdr:colOff>
+                <xdr:row>62</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>9</xdr:col>
-                <xdr:colOff>3390900</xdr:colOff>
-                <xdr:row>91</xdr:row>
-                <xdr:rowOff>171450</xdr:rowOff>
+                <xdr:colOff>2886075</xdr:colOff>
+                <xdr:row>72</xdr:row>
+                <xdr:rowOff>133350</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Excel.Sheet.8" shapeId="1030" r:id="rId6"/>
+        <oleObject progId="Excel.Sheet.8" shapeId="1031" r:id="rId6"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </oleObjects>
